--- a/biology/Biochimie/Heptose/Heptose.xlsx
+++ b/biology/Biochimie/Heptose/Heptose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Un heptose est un ose possédant sept atomes de carbone. On rencontre la forme D de ces composés dans les lipopolysaccharides des parois bactériennes. Ils ont tous la même formule brute C7H14O7 et possèdent tous un groupe carbonyle :
 soit un groupe aldéhyde en position 1 (aldoheptoses) ;
-soit un groupe cétone en position 2 (principalement), 3, 4 ou 5 (cétoheptoses ou cétoheptuloses)[1].</t>
+soit un groupe cétone en position 2 (principalement), 3, 4 ou 5 (cétoheptoses ou cétoheptuloses).</t>
         </is>
       </c>
     </row>
@@ -512,7 +524,9 @@
           <t>Aldose</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Ces heptoses possèdent cinq atomes de carbone asymétriques, il existe seize paires d'énantiomères, diastéréoisomères entre elles. Parmi celles-ci, on peut citer :
 mannoheptose
@@ -573,13 +587,15 @@
           <t>Cétose</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les cétoheptoses possèdent quatre atomes de carbone asymétriques, soit huit paires d'énantiomères, diastéréoisomères entre elles. Les cétoheptones avec le groupe cétone en position 2 sont :
 alloheptulose ;
 altroheptulose ;
 sédoheptulose ;
-mannoheptulose[2] ;
+mannoheptulose ;
 guloheptose ;
 idoheptulose ;
 galactoheptulose ;
